--- a/biology/Botanique/Carl_Julius_Bernhard_Börner/Carl_Julius_Bernhard_Börner.xlsx
+++ b/biology/Botanique/Carl_Julius_Bernhard_Börner/Carl_Julius_Bernhard_Börner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_Julius_Bernhard_B%C3%B6rner</t>
+          <t>Carl_Julius_Bernhard_Börner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl (ou Karl) Julius Bernhard Börner est un entomologiste, botaniste et œnologue allemand, né le 28 mai 1880 à Brême et mort le 14 juin 1953 à Naumburg (Saale).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl_Julius_Bernhard_B%C3%B6rner</t>
+          <t>Carl_Julius_Bernhard_Börner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Börner étudie la biologie à Marbourg. En 1903, il devient assistant à l'Institut impérial de biologie, à Dahlem (Berlin). À partir de 1907, en tant que chef de la station viticole d’Ulmenweiler, aujourd'hui Vany, près de Metz (alors en territoire allemand), il se consacre à la recherche sur la biologie et le contrôle du phylloxéra. Il découvre en 1910 l’existence de plusieurs races de phylloxéra. Après la relocalisation de la station viticole près de Naumbourg, il y fait des recherches sur la résistance au phylloxéra ; il y montre que les plants de vigne américains sont naturellement résistants au phylloxéra et pousse la sélection en ce sens. À la suite de ces recherches, la greffe de la vigne est homologuée en Allemagne en 1923, ce qui permet de remporter la bataille contre le phylloxéra.
 Par ailleurs, Carl Börner a participé à la réglementation contre le phylloxéra et pour le contrôle des ravageurs infestant les vignes allemandes.
